--- a/Projektplanung_CheeseGame.xlsx
+++ b/Projektplanung_CheeseGame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/sara_cabreraramirez_sluz_ch/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5e6e13e217a13fe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1144DE57-10A2-4961-AE76-534940EE4372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551D641A-A9CD-4400-833F-44BFF0683A11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B835FE55-124E-4311-8961-B4689C22EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Code</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>XYZ.0106</t>
-  </si>
-  <si>
-    <t>27/20/2022</t>
   </si>
   <si>
     <t>Projekt: Cheese Game</t>
@@ -1057,6 +1054,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,42 +1081,13 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1447,7 +1424,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1465,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -1725,24 +1702,24 @@
 (mit Abnahmekriterien)</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="42">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>44854</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>XYZ.0104</v>
@@ -3216,24 +3193,24 @@
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="128">
+      <c r="F1" s="122">
         <v>1</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="122">
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125">
         <v>2</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
       <c r="T1" s="120">
         <v>3</v>
       </c>
@@ -3299,47 +3276,47 @@
         <v>44854</v>
       </c>
       <c r="J3" s="6">
-        <f>I3+7</f>
+        <f t="shared" ref="J3:T3" si="0">I3+7</f>
         <v>44861</v>
       </c>
       <c r="K3" s="6">
-        <f>J3+7</f>
+        <f t="shared" si="0"/>
         <v>44868</v>
       </c>
       <c r="L3" s="6">
-        <f>K3+7</f>
+        <f t="shared" si="0"/>
         <v>44875</v>
       </c>
       <c r="M3" s="6">
-        <f>L3+7</f>
+        <f t="shared" si="0"/>
         <v>44882</v>
       </c>
       <c r="N3" s="6">
-        <f>M3+7</f>
+        <f t="shared" si="0"/>
         <v>44889</v>
       </c>
       <c r="O3" s="6">
-        <f>N3+7</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="P3" s="6">
-        <f>O3+7</f>
+        <f t="shared" si="0"/>
         <v>44903</v>
       </c>
       <c r="Q3" s="6">
-        <f>P3+7</f>
+        <f t="shared" si="0"/>
         <v>44910</v>
       </c>
       <c r="R3" s="6">
-        <f>Q3+7</f>
+        <f t="shared" si="0"/>
         <v>44917</v>
       </c>
       <c r="S3" s="6">
-        <f>R3+7</f>
+        <f t="shared" si="0"/>
         <v>44924</v>
       </c>
       <c r="T3" s="6">
-        <f>S3+7</f>
+        <f t="shared" si="0"/>
         <v>44931</v>
       </c>
     </row>
@@ -3361,63 +3338,63 @@
         <v>44819</v>
       </c>
       <c r="F4" s="117">
-        <f t="shared" ref="F4:S11" si="0">IF(AND($C4&lt;=F$3,F$3&lt;=$D4),1,0)</f>
+        <f t="shared" ref="F4:S11" si="1">IF(AND($C4&lt;=F$3,F$3&lt;=$D4),1,0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="118">
-        <f t="shared" ref="J4:T19" si="1">IF(AND($C4&lt;=J$3,J$3&lt;=$D4),1,0)</f>
+        <f t="shared" ref="J4:T19" si="2">IF(AND($C4&lt;=J$3,J$3&lt;=$D4),1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3439,63 +3416,63 @@
         <v>44819</v>
       </c>
       <c r="F5" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3517,63 +3494,63 @@
         <v>44826</v>
       </c>
       <c r="F6" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3595,63 +3572,63 @@
         <v>44826</v>
       </c>
       <c r="F7" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3666,71 +3643,71 @@
       </c>
       <c r="C8" s="106">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,C$2,FALSE))</f>
-        <v>44854</v>
-      </c>
-      <c r="D8" s="112" t="str">
+        <v>44826</v>
+      </c>
+      <c r="D8" s="112">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,D$2,FALSE))</f>
-        <v>27/20/2022</v>
+        <v>0</v>
       </c>
       <c r="F8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O8" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S8" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T8" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -3751,63 +3728,63 @@
         <v>44826</v>
       </c>
       <c r="F9" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3829,63 +3806,63 @@
         <v/>
       </c>
       <c r="F10" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3907,63 +3884,63 @@
         <v/>
       </c>
       <c r="F11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3985,63 +3962,63 @@
         <v/>
       </c>
       <c r="F12" s="34">
-        <f t="shared" ref="F12:T29" si="2">IF(AND($C12&lt;=F$3,F$3&lt;=$D12),1,0)</f>
+        <f t="shared" ref="F12:T29" si="3">IF(AND($C12&lt;=F$3,F$3&lt;=$D12),1,0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="35">
+      <c r="K12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="35">
+      <c r="P12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4063,63 +4040,63 @@
         <v/>
       </c>
       <c r="F13" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="35">
+      <c r="K13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="35">
+      <c r="P13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4141,63 +4118,63 @@
         <v/>
       </c>
       <c r="F14" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="35">
+      <c r="K14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="35">
+      <c r="P14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4219,63 +4196,63 @@
         <v/>
       </c>
       <c r="F15" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="35">
+      <c r="K15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="35">
+      <c r="P15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4297,63 +4274,63 @@
         <v/>
       </c>
       <c r="F16" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="35">
+      <c r="K16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="35">
+      <c r="P16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4375,63 +4352,63 @@
         <v/>
       </c>
       <c r="F17" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="35">
+      <c r="K17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="35">
+      <c r="P17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4453,63 +4430,63 @@
         <v/>
       </c>
       <c r="F18" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="35">
+      <c r="K18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="35">
+      <c r="P18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,63 +4508,63 @@
         <v/>
       </c>
       <c r="F19" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="35">
+      <c r="K19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="35">
+      <c r="P19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4609,63 +4586,63 @@
         <v/>
       </c>
       <c r="F20" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T20" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4687,63 +4664,63 @@
         <v/>
       </c>
       <c r="F21" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T21" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4765,63 +4742,63 @@
         <v/>
       </c>
       <c r="F22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T22" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4843,63 +4820,63 @@
         <v/>
       </c>
       <c r="F23" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4921,63 +4898,63 @@
         <v/>
       </c>
       <c r="F24" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4999,63 +4976,63 @@
         <v/>
       </c>
       <c r="F25" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5077,63 +5054,63 @@
         <v/>
       </c>
       <c r="F26" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5155,63 +5132,63 @@
         <v/>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5233,63 +5210,63 @@
         <v/>
       </c>
       <c r="F28" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5311,63 +5288,63 @@
         <v/>
       </c>
       <c r="F29" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="35">
-        <f t="shared" ref="M29:T29" si="3">IF(AND($C29&lt;=M$3,M$3&lt;=$D29),1,0)</f>
+        <f t="shared" ref="M29:T29" si="4">IF(AND($C29&lt;=M$3,M$3&lt;=$D29),1,0)</f>
         <v>0</v>
       </c>
       <c r="N29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T29" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5389,63 +5366,63 @@
         <v/>
       </c>
       <c r="F30" s="34">
-        <f t="shared" ref="F30:T45" si="4">IF(AND($C30&lt;=F$3,F$3&lt;=$D30),1,0)</f>
+        <f t="shared" ref="F30:T45" si="5">IF(AND($C30&lt;=F$3,F$3&lt;=$D30),1,0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5467,63 +5444,63 @@
         <v/>
       </c>
       <c r="F31" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5545,63 +5522,63 @@
         <v/>
       </c>
       <c r="F32" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5623,63 +5600,63 @@
         <v/>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5701,63 +5678,63 @@
         <v/>
       </c>
       <c r="F34" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5779,63 +5756,63 @@
         <v/>
       </c>
       <c r="F35" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T35" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5857,63 +5834,63 @@
         <v/>
       </c>
       <c r="F36" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5935,63 +5912,63 @@
         <v/>
       </c>
       <c r="F37" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6013,63 +5990,63 @@
         <v/>
       </c>
       <c r="F38" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T38" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6091,63 +6068,63 @@
         <v/>
       </c>
       <c r="F39" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T39" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6169,63 +6146,63 @@
         <v/>
       </c>
       <c r="F40" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6247,63 +6224,63 @@
         <v/>
       </c>
       <c r="F41" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T41" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6325,63 +6302,63 @@
         <v/>
       </c>
       <c r="F42" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T42" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6403,63 +6380,63 @@
         <v/>
       </c>
       <c r="F43" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6481,63 +6458,63 @@
         <v/>
       </c>
       <c r="F44" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6559,63 +6536,63 @@
         <v/>
       </c>
       <c r="F45" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6637,63 +6614,63 @@
         <v/>
       </c>
       <c r="F46" s="34">
-        <f t="shared" ref="F46:T61" si="5">IF(AND($C46&lt;=F$3,F$3&lt;=$D46),1,0)</f>
+        <f t="shared" ref="F46:T61" si="6">IF(AND($C46&lt;=F$3,F$3&lt;=$D46),1,0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6715,63 +6692,63 @@
         <v/>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6793,63 +6770,63 @@
         <v/>
       </c>
       <c r="F48" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6871,63 +6848,63 @@
         <v/>
       </c>
       <c r="F49" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6949,63 +6926,63 @@
         <v/>
       </c>
       <c r="F50" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T50" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7027,63 +7004,63 @@
         <v/>
       </c>
       <c r="F51" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7105,63 +7082,63 @@
         <v/>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7183,63 +7160,63 @@
         <v/>
       </c>
       <c r="F53" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T53" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7261,63 +7238,63 @@
         <v/>
       </c>
       <c r="F54" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T54" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7339,63 +7316,63 @@
         <v/>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T55" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7417,63 +7394,63 @@
         <v/>
       </c>
       <c r="F56" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T56" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7495,63 +7472,63 @@
         <v/>
       </c>
       <c r="F57" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T57" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7573,63 +7550,63 @@
         <v/>
       </c>
       <c r="F58" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T58" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7651,63 +7628,63 @@
         <v/>
       </c>
       <c r="F59" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T59" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7729,63 +7706,63 @@
         <v/>
       </c>
       <c r="F60" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T60" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7807,63 +7784,63 @@
         <v/>
       </c>
       <c r="F61" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T61" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7885,63 +7862,63 @@
         <v/>
       </c>
       <c r="F62" s="34">
-        <f t="shared" ref="F62:T77" si="6">IF(AND($C62&lt;=F$3,F$3&lt;=$D62),1,0)</f>
+        <f t="shared" ref="F62:T77" si="7">IF(AND($C62&lt;=F$3,F$3&lt;=$D62),1,0)</f>
         <v>0</v>
       </c>
       <c r="G62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7963,63 +7940,63 @@
         <v/>
       </c>
       <c r="F63" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T63" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8041,63 +8018,63 @@
         <v/>
       </c>
       <c r="F64" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8119,63 +8096,63 @@
         <v/>
       </c>
       <c r="F65" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T65" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8197,63 +8174,63 @@
         <v/>
       </c>
       <c r="F66" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T66" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8275,63 +8252,63 @@
         <v/>
       </c>
       <c r="F67" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T67" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8353,63 +8330,63 @@
         <v/>
       </c>
       <c r="F68" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T68" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8431,63 +8408,63 @@
         <v/>
       </c>
       <c r="F69" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8509,63 +8486,63 @@
         <v/>
       </c>
       <c r="F70" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8587,63 +8564,63 @@
         <v/>
       </c>
       <c r="F71" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T71" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8665,63 +8642,63 @@
         <v/>
       </c>
       <c r="F72" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T72" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8743,63 +8720,63 @@
         <v/>
       </c>
       <c r="F73" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T73" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8821,63 +8798,63 @@
         <v/>
       </c>
       <c r="F74" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T74" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8899,63 +8876,63 @@
         <v/>
       </c>
       <c r="F75" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T75" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8977,63 +8954,63 @@
         <v/>
       </c>
       <c r="F76" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T76" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9055,63 +9032,63 @@
         <v/>
       </c>
       <c r="F77" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T77" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9133,63 +9110,63 @@
         <v/>
       </c>
       <c r="F78" s="34">
-        <f t="shared" ref="F78:T93" si="7">IF(AND($C78&lt;=F$3,F$3&lt;=$D78),1,0)</f>
+        <f t="shared" ref="F78:T93" si="8">IF(AND($C78&lt;=F$3,F$3&lt;=$D78),1,0)</f>
         <v>0</v>
       </c>
       <c r="G78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T78" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9211,63 +9188,63 @@
         <v/>
       </c>
       <c r="F79" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T79" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9289,63 +9266,63 @@
         <v/>
       </c>
       <c r="F80" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T80" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9367,63 +9344,63 @@
         <v/>
       </c>
       <c r="F81" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T81" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9445,63 +9422,63 @@
         <v/>
       </c>
       <c r="F82" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T82" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9523,63 +9500,63 @@
         <v/>
       </c>
       <c r="F83" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T83" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9601,63 +9578,63 @@
         <v/>
       </c>
       <c r="F84" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T84" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9679,63 +9656,63 @@
         <v/>
       </c>
       <c r="F85" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T85" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9757,63 +9734,63 @@
         <v/>
       </c>
       <c r="F86" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T86" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9835,63 +9812,63 @@
         <v/>
       </c>
       <c r="F87" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T87" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9913,63 +9890,63 @@
         <v/>
       </c>
       <c r="F88" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T88" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9991,63 +9968,63 @@
         <v/>
       </c>
       <c r="F89" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T89" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10069,63 +10046,63 @@
         <v/>
       </c>
       <c r="F90" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T90" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10147,63 +10124,63 @@
         <v/>
       </c>
       <c r="F91" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T91" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10225,63 +10202,63 @@
         <v/>
       </c>
       <c r="F92" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T92" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10303,63 +10280,63 @@
         <v/>
       </c>
       <c r="F93" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T93" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10381,63 +10358,63 @@
         <v/>
       </c>
       <c r="F94" s="34">
-        <f t="shared" ref="F94:T100" si="8">IF(AND($C94&lt;=F$3,F$3&lt;=$D94),1,0)</f>
+        <f t="shared" ref="F94:T100" si="9">IF(AND($C94&lt;=F$3,F$3&lt;=$D94),1,0)</f>
         <v>0</v>
       </c>
       <c r="G94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T94" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10459,63 +10436,63 @@
         <v/>
       </c>
       <c r="F95" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T95" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10537,63 +10514,63 @@
         <v/>
       </c>
       <c r="F96" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T96" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10615,63 +10592,63 @@
         <v/>
       </c>
       <c r="F97" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T97" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10693,63 +10670,63 @@
         <v/>
       </c>
       <c r="F98" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T98" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10771,63 +10748,63 @@
         <v/>
       </c>
       <c r="F99" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T99" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10849,63 +10826,63 @@
         <v/>
       </c>
       <c r="F100" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T100" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10917,10 +10894,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F4:T100">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10955,15 +10932,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="60" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="123" t="str">
+      <c r="A1" s="126" t="str">
         <f>Arbeitspakete!A1</f>
         <v>Projekt: Cheese Game</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="D1" s="126" t="s">
+      <c r="B1" s="126"/>
+      <c r="D1" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="127"/>
+      <c r="E1" s="130"/>
       <c r="F1" s="98">
         <v>44859</v>
       </c>
@@ -11015,20 +10992,20 @@
       <c r="G2" s="101">
         <v>11</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="125"/>
+      <c r="I2" s="128"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="125"/>
+      <c r="L2" s="128"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="125"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="1:15" s="54" customFormat="1" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="50" t="s">
@@ -11314,11 +11291,11 @@
       </c>
       <c r="C8" s="48" t="str">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,C$2,FALSE))</f>
-        <v>Offen</v>
+        <v>In Arbeit</v>
       </c>
       <c r="D8" s="67">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,D$2,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="67">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,E$2,FALSE))</f>
@@ -11326,11 +11303,11 @@
       </c>
       <c r="F8" s="68">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,F$2,FALSE))</f>
-        <v>44854</v>
-      </c>
-      <c r="G8" s="68" t="str">
+        <v>44826</v>
+      </c>
+      <c r="G8" s="68">
         <f>IF($A8="","",VLOOKUP($A8,Arbeitspakete!$A$3:$M$999,G$2,FALSE))</f>
-        <v>27/20/2022</v>
+        <v>0</v>
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="69">
